--- a/concept_set_documentation/Chrons.xlsx
+++ b/concept_set_documentation/Chrons.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewlevine/code_projects/emerge2ohdsi_information_loss_CURATED/concept_set_documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DF5CED05-4A7A-5642-BA05-509F8BDF5D63}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{427BE70C-80F8-384A-BEF2-EB6D75C82FC7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="960" windowWidth="24640" windowHeight="14000" activeTab="1" xr2:uid="{8F9529E9-F54B-EF44-B582-F8055B0E1D72}"/>
+    <workbookView xWindow="580" yWindow="960" windowWidth="24640" windowHeight="14000" firstSheet="1" activeTab="7" xr2:uid="{8F9529E9-F54B-EF44-B582-F8055B0E1D72}"/>
   </bookViews>
   <sheets>
     <sheet name="Original ICD9 Concept Set Gold " sheetId="1" r:id="rId1"/>
     <sheet name="Author-intent extension to Conc" sheetId="2" r:id="rId2"/>
     <sheet name="KE SNOMED Mimic" sheetId="3" r:id="rId3"/>
     <sheet name="KE SNOMED Optimize" sheetId="4" r:id="rId4"/>
+    <sheet name="Auto No Desc" sheetId="5" r:id="rId5"/>
+    <sheet name="Auto All Desc" sheetId="6" r:id="rId6"/>
+    <sheet name="Auto No Desc if Child" sheetId="7" r:id="rId7"/>
+    <sheet name="Auto No Desc if Desc" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="292">
   <si>
     <t>concept_id</t>
   </si>
@@ -874,6 +878,36 @@
   </si>
   <si>
     <t>Chron's Disease: Knowledge Engineered SNOMED Optimize</t>
+  </si>
+  <si>
+    <t>4253620</t>
+  </si>
+  <si>
+    <t>Iritis with Crohn's disease</t>
+  </si>
+  <si>
+    <t>410485009</t>
+  </si>
+  <si>
+    <t>4340812</t>
+  </si>
+  <si>
+    <t>Perianal Crohn's disease</t>
+  </si>
+  <si>
+    <t>235796008</t>
+  </si>
+  <si>
+    <t>Chron's Disease: Automatic Mappings, No Descendents</t>
+  </si>
+  <si>
+    <t>Chron's Disease: Automatic Mappings, All Descendents</t>
+  </si>
+  <si>
+    <t>Chron's Disease: Automatic Mappings, No Descendents if Child</t>
+  </si>
+  <si>
+    <t>Chron's Disease: Automatic Mappings, No Descendents if Descendent</t>
   </si>
 </sst>
 </file>
@@ -976,7 +1010,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1011,6 +1045,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1488,7 +1531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030681DF-6116-6849-B029-C8A2D19EE420}">
   <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -3330,4 +3373,2712 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6D53B2-1A24-2245-901E-91D9828FA8BF}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="32.6640625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1BC6DE-32DD-1747-A112-E895B3BD7767}">
+  <dimension ref="A1:E76"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="32.6640625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A53" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A58" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A64" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A65" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A66" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A67" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A68" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A69" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A70" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A71" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A72" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A73" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A74" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E74" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A75" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A76" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41BF0895-8A53-4649-A53D-DAC1ABB970FA}">
+  <dimension ref="A1:E62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="32.6640625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A54" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A58" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A61" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A62" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91593099-C037-B24D-AB2B-7AF517C05FAD}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="32.6640625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>